--- a/data/template_power_force.xlsx
+++ b/data/template_power_force.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\707579\Dropbox\Physiotherapy\force_velocity\aktiv_force_power\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36E0C38-C2C5-4459-9F1F-78B7A6306F10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC6F06-8818-4E7E-AC2B-53E47873E1C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A6E5DB8-D019-4E69-BB78-55B314B3F186}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H13" sqref="F12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,10 +479,10 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>887</v>
       </c>
       <c r="G2">
-        <v>500</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -502,10 +502,10 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>917</v>
       </c>
       <c r="G3">
-        <v>700</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,10 +525,10 @@
         <v>12</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>1267</v>
       </c>
       <c r="G4">
-        <v>900</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -548,10 +548,10 @@
         <v>13</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>1185</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -571,10 +571,10 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>1464</v>
       </c>
       <c r="G6">
-        <v>1100</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="F7">
-        <v>600</v>
+        <v>1417</v>
       </c>
       <c r="G7">
-        <v>1200</v>
+        <v>897</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,6 +613,12 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -627,6 +633,12 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -641,6 +653,12 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -654,6 +672,12 @@
       </c>
       <c r="E11" t="s">
         <v>13</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
